--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>陈碧容</t>
+  </si>
+  <si>
+    <t>总结：边讨论边设计原型，考虑到技术有限，界面设计相对简单，准备着手熟悉数据库设计。</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -647,7 +652,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -656,7 +663,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -665,7 +674,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -680,7 +691,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -695,7 +708,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -706,7 +721,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -715,7 +732,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -730,7 +749,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -745,7 +766,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1259,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A25" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1731,7 +1754,9 @@
       <c r="B43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
@@ -1741,7 +1766,9 @@
       <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
@@ -1751,7 +1778,9 @@
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
@@ -1761,7 +1790,9 @@
       <c r="B46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
@@ -1771,7 +1802,9 @@
       <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
@@ -1781,12 +1814,14 @@
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -282,6 +282,33 @@
   </si>
   <si>
     <t>总结：边讨论边设计原型，考虑到技术有限，界面设计相对简单，准备着手熟悉数据库设计。</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+  </si>
+  <si>
+    <t>设计界面原型[手机端邀请成员][手机端移除成员]</t>
+  </si>
+  <si>
+    <t>设计界面原型[手机端群信息共享][手机端忘记密码]</t>
+  </si>
+  <si>
+    <t>设计界面原型[PC端邀请成员][PC端移除成员]</t>
+  </si>
+  <si>
+    <t>设计界面原型[PC端忘记密码][PC端移除群成员]</t>
+  </si>
+  <si>
+    <t>设计界面原型[PC端忘记密码][PC端位置共享]</t>
+  </si>
+  <si>
+    <t>设计界面原型[开启群]</t>
+  </si>
+  <si>
+    <t>设计界面原型[禁用群]</t>
   </si>
 </sst>
 </file>
@@ -635,9 +662,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -652,9 +677,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -663,9 +686,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -674,9 +695,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -691,9 +710,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -708,9 +725,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -721,9 +736,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -732,9 +745,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -749,9 +760,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -766,9 +775,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1280,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D50"/>
+    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1833,8 +1840,104 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -1845,6 +1948,8 @@
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>设计界面原型[禁用群]</t>
+  </si>
+  <si>
+    <t>总结：界面设计基本完成</t>
+  </si>
+  <si>
+    <t>总结：边讨论边设计原型，考虑到技术有限，界面设计相对简单。</t>
+  </si>
+  <si>
+    <t>总结：界面设计基本完成,正在着手数据库设计。</t>
+  </si>
+  <si>
+    <t>总结：界面设计基本完成,正在优化用例描述、着手数据库设计。</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -677,7 +691,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -686,7 +702,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -695,7 +713,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -710,7 +730,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -725,7 +747,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -736,7 +760,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -745,7 +771,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -760,7 +788,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -775,7 +805,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1289,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1828,7 +1860,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1869,7 +1901,9 @@
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
@@ -1879,7 +1913,9 @@
       <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4">
@@ -1889,7 +1925,9 @@
       <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4">
@@ -1899,7 +1937,9 @@
       <c r="B56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4">
@@ -1909,7 +1949,9 @@
       <c r="B57" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
@@ -1919,12 +1961,14 @@
       <c r="B58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -321,6 +321,30 @@
   </si>
   <si>
     <t>总结：界面设计基本完成,正在优化用例描述、着手数据库设计。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周四</t>
+  </si>
+  <si>
+    <t>课题评审</t>
+  </si>
+  <si>
+    <t>总结：演示自己的作品，学习他人的优点。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第八周周四</t>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
+  <si>
+    <t>课堂评审</t>
   </si>
 </sst>
 </file>
@@ -674,9 +698,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -691,9 +713,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -702,9 +722,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -713,9 +731,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -730,9 +746,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -747,9 +761,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -760,9 +772,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -771,9 +781,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -788,9 +796,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -805,9 +811,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1319,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D60"/>
+    <sheetView topLeftCell="A58" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1980,8 +1984,200 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -1994,6 +2190,10 @@
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -345,6 +345,42 @@
   </si>
   <si>
     <t>课堂评审</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、修改逻辑模型</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、修改概念模型</t>
+  </si>
+  <si>
+    <t>建立github版本库</t>
+  </si>
+  <si>
+    <t>建立github库、配置开发环境</t>
+  </si>
+  <si>
+    <t>建立后台开发环境、</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、修改物理模型</t>
+  </si>
+  <si>
+    <t>修改物理模型后导入数据库</t>
+  </si>
+  <si>
+    <t>修改物理模型后导入mysql数据库</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、分析使用技术</t>
+  </si>
+  <si>
+    <t>建立Eclipse后台开发环境</t>
+  </si>
+  <si>
+    <t>建立github库、配置android studio开发环境</t>
   </si>
 </sst>
 </file>
@@ -698,7 +734,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -713,7 +751,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -722,7 +762,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -731,7 +773,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -746,7 +790,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -761,7 +807,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -772,7 +820,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -781,7 +831,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -796,7 +848,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -811,7 +865,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1325,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView topLeftCell="A49" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -2118,7 +2174,9 @@
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
@@ -2126,7 +2184,9 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
@@ -2134,7 +2194,9 @@
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
@@ -2142,7 +2204,9 @@
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
@@ -2150,7 +2214,9 @@
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
@@ -2158,7 +2224,9 @@
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>建立github库、配置android studio开发环境</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、分析使用</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、</t>
+  </si>
+  <si>
+    <t>建立Eclipse后台开发环境、修改物理模型</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>熟悉开发环境、分析技术路线</t>
   </si>
 </sst>
 </file>
@@ -734,9 +749,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -751,9 +764,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -762,9 +773,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -773,9 +782,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -790,9 +797,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -807,9 +812,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -820,9 +823,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -831,9 +832,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -848,9 +847,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -865,9 +862,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1382,7 +1377,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A49" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -2195,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2204,18 +2199,18 @@
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -396,6 +396,39 @@
   </si>
   <si>
     <t>熟悉开发环境、分析技术路线</t>
+  </si>
+  <si>
+    <t>总结：完成基本环境搭建。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+  </si>
+  <si>
+    <t>确定使用的通讯技术、集成环境</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>完成android注册界面</t>
+  </si>
+  <si>
+    <t>完成android修改密码</t>
+  </si>
+  <si>
+    <t>完成android界面[修改密码]</t>
+  </si>
+  <si>
+    <t>完成android界面[注册]</t>
+  </si>
+  <si>
+    <t>完成android界面[修改个人信息]</t>
+  </si>
+  <si>
+    <t>完成android界面[设置]</t>
+  </si>
+  <si>
+    <t>总结：搭建基本环境。</t>
   </si>
 </sst>
 </file>
@@ -749,7 +782,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -764,7 +799,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -773,7 +810,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -782,7 +821,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -797,7 +838,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -812,7 +855,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -823,7 +868,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -832,7 +879,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -847,7 +896,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -862,7 +913,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1374,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView topLeftCell="A55" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -2172,7 +2225,9 @@
       <c r="B73" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
@@ -2182,7 +2237,9 @@
       <c r="B74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
@@ -2192,7 +2249,9 @@
       <c r="B75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
@@ -2212,7 +2271,9 @@
       <c r="B77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
@@ -2222,12 +2283,14 @@
       <c r="B78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2239,8 +2302,104 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -2257,6 +2416,8 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t>总结：搭建基本环境。</t>
+  </si>
+  <si>
+    <t>总结：制作androidUI中。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
+  </si>
+  <si>
+    <t>完成android界面[登陆]</t>
+  </si>
+  <si>
+    <t>完成android界面[忘记密码]</t>
+  </si>
+  <si>
+    <t>完成android界面[创建群聊]</t>
+  </si>
+  <si>
+    <t>完成android界面[搜索群聊]</t>
+  </si>
+  <si>
+    <t>完成android界面[关于我们]</t>
   </si>
 </sst>
 </file>
@@ -782,9 +803,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -799,9 +818,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -810,9 +827,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -821,9 +836,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -838,9 +851,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -855,9 +866,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -868,9 +877,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -879,9 +886,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -896,9 +901,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -913,9 +916,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1427,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A76" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -2331,7 +2332,9 @@
       <c r="B83" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4">
@@ -2341,7 +2344,9 @@
       <c r="B84" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4">
@@ -2351,7 +2356,9 @@
       <c r="B85" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4">
@@ -2371,7 +2378,9 @@
       <c r="B87" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4">
@@ -2381,12 +2390,14 @@
       <c r="B88" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2398,8 +2409,104 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -2418,6 +2525,8 @@
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -294,6 +294,38 @@
   </si>
   <si>
     <t>完成android界面[加入群聊]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：构思界面代码和java代码的连接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成android界面[设置]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试加入聊天框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改[搜索群聊]java代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改android界面[通知]与java代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改[我的]java代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改android界面[加入群聊]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,17 +412,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,12 +739,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -801,26 +833,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -909,26 +941,26 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -1017,26 +1049,26 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1125,26 +1157,26 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1233,26 +1265,26 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1341,26 +1373,26 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
@@ -1449,26 +1481,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -1555,26 +1587,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
@@ -1661,26 +1693,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -1772,23 +1804,23 @@
       <c r="A99" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -1808,78 +1840,203 @@
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A79:D80"/>
@@ -1887,21 +2044,6 @@
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -573,6 +573,36 @@
   </si>
   <si>
     <t>制作静态后台管理网页[开启用户]</t>
+  </si>
+  <si>
+    <t>总结：前端成功集成了环信SDK，重心移向后台。</t>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十周周三</t>
+  </si>
+  <si>
+    <t>利用环信实现聊天功能</t>
+  </si>
+  <si>
+    <t>后台数据库建表</t>
+  </si>
+  <si>
+    <t>android忘记密码手机验证码功能实现</t>
+  </si>
+  <si>
+    <t>android登陆图片验证码功能实现</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[禁用用户]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[开启群]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[禁用群]</t>
   </si>
 </sst>
 </file>
@@ -585,7 +615,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -726,11 +756,6 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <name val="宋体"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="宋体"/>
       <color theme="1"/>
     </font>
@@ -937,9 +962,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -954,9 +977,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -965,9 +986,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -976,9 +995,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -993,9 +1010,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1010,9 +1025,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1023,9 +1036,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1034,9 +1045,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1051,9 +1060,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1068,9 +1075,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1085,9 +1090,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1264,10 +1267,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView topLeftCell="A124" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3055,7 +3058,9 @@
       <c r="B133" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:4">
@@ -3065,7 +3070,9 @@
       <c r="B134" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4">
@@ -3073,9 +3080,11 @@
         <v>8</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C135" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4">
@@ -3085,7 +3094,9 @@
       <c r="B136" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C136" s="8"/>
+      <c r="C136" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4">
@@ -3095,7 +3106,9 @@
       <c r="B137" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C137" s="8"/>
+      <c r="C137" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:4">
@@ -3105,12 +3118,14 @@
       <c r="B138" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -3122,8 +3137,104 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3152,6 +3263,8 @@
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -382,85 +383,387 @@
   </si>
   <si>
     <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利用环信实现基础单聊功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利用环信实现群聊功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台框架连接数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尝试运行后台项目,进行简单逻辑构造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总结：开始实现聊天功能，后台配置中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.11.8 第十周周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成51%</t>
+  </si>
+  <si>
+    <t>完成52%</t>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周一</t>
+  </si>
+  <si>
+    <t>写后台代码</t>
+  </si>
+  <si>
+    <t>完成50%</t>
+  </si>
+  <si>
+    <t>编写后台注册</t>
+  </si>
+  <si>
+    <t>实现后台注册代码</t>
+  </si>
+  <si>
+    <t>尝试前端好友分组功能</t>
+  </si>
+  <si>
+    <t>总结：初步实现后台。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
+  </numFmts>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="宋体"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="宋体"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -475,7 +778,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -490,11 +795,268 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -502,44 +1064,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 强调文字2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 强调文字3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 强调文字4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 强调文字5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 强调文字6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 强调文字1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 强调文字2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 强调文字3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 强调文字4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 强调文字5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 强调文字6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 强调文字1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 强调文字2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 强调文字3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 强调文字4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 强调文字5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 强调文字6" xfId="47" builtinId="52"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="好" xfId="21" builtinId="26"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字1" xfId="24" builtinId="29"/>
+    <cellStyle name="强调文字2" xfId="28" builtinId="33"/>
+    <cellStyle name="强调文字3" xfId="32" builtinId="37"/>
+    <cellStyle name="强调文字4" xfId="36" builtinId="41"/>
+    <cellStyle name="强调文字5" xfId="40" builtinId="45"/>
+    <cellStyle name="强调文字6" xfId="44" builtinId="49"/>
+    <cellStyle name="批注" xfId="8" builtinId="10"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="标题 1" xfId="11" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="12" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="13" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
+    <cellStyle name="检查单元格" xfId="18" builtinId="23"/>
+    <cellStyle name="汇总" xfId="20" builtinId="25"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="计算" xfId="17" builtinId="22"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="输入" xfId="15" builtinId="20"/>
+    <cellStyle name="输出" xfId="16" builtinId="21"/>
+    <cellStyle name="适中" xfId="23" builtinId="28"/>
+    <cellStyle name="链接的单元格" xfId="19" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -829,21 +1432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView topLeftCell="A145" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.55566608" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="18.61199008" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="24.01807605" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -851,7 +1454,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -877,7 +1480,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,7 +1492,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -901,7 +1504,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -913,7 +1516,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -925,7 +1528,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -937,7 +1540,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -945,13 +1548,13 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1562,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -985,7 +1588,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1600,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1612,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1624,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1636,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1648,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1053,13 +1656,13 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -1067,7 +1670,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1696,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1708,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1720,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1732,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1744,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1756,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
@@ -1161,13 +1764,13 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1778,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1804,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1816,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1828,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1840,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1852,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1864,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -1269,13 +1872,13 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -1283,7 +1886,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1912,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1924,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1936,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1948,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -1357,7 +1960,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1972,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -1377,13 +1980,13 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -1391,7 +1994,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +2020,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +2032,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +2044,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +2056,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
@@ -1465,7 +2068,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +2080,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
         <v>56</v>
       </c>
@@ -1485,13 +2088,13 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -1499,7 +2102,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +2128,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +2140,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +2152,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +2164,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
@@ -1573,7 +2176,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +2188,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
         <v>57</v>
       </c>
@@ -1593,13 +2196,13 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
@@ -1607,7 +2210,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +2236,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +2248,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +2260,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +2270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
@@ -1679,7 +2282,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +2294,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="7" t="s">
         <v>73</v>
       </c>
@@ -1699,13 +2302,13 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
@@ -1713,7 +2316,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +2342,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +2354,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +2366,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +2376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>47</v>
       </c>
@@ -1785,7 +2388,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +2400,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" s="7" t="s">
         <v>74</v>
       </c>
@@ -1805,13 +2408,13 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>75</v>
       </c>
@@ -1819,7 +2422,7 @@
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +2448,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +2460,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +2472,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +2484,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
@@ -1893,7 +2496,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -1905,7 +2508,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99" s="7" t="s">
         <v>96</v>
       </c>
@@ -1913,13 +2516,13 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +2530,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -1941,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" s="5" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +2556,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +2568,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +2580,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
@@ -1989,7 +2592,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>47</v>
       </c>
@@ -2001,7 +2604,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2616,7 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>83</v>
       </c>
@@ -2021,13 +2624,13 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>84</v>
       </c>
@@ -2035,7 +2638,7 @@
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2664,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2676,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2688,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2700,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
         <v>47</v>
       </c>
@@ -2109,7 +2712,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2724,7 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>109</v>
       </c>
@@ -2129,13 +2732,13 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121" s="8" t="s">
         <v>104</v>
       </c>
@@ -2143,7 +2746,7 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123" s="5" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2786,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125" s="5" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2798,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2810,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
         <v>47</v>
       </c>
@@ -2219,7 +2822,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2834,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>81</v>
       </c>
@@ -2239,13 +2842,13 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131" s="8" t="s">
         <v>105</v>
       </c>
@@ -2253,7 +2856,7 @@
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -2267,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2882,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +2894,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" s="5" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2906,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -2315,7 +2918,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4">
       <c r="A137" s="5" t="s">
         <v>47</v>
       </c>
@@ -2327,7 +2930,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2942,7 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>113</v>
       </c>
@@ -2347,13 +2950,13 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4">
       <c r="A141" s="8" t="s">
         <v>114</v>
       </c>
@@ -2361,7 +2964,7 @@
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4">
       <c r="A143" s="5" t="s">
         <v>6</v>
       </c>
@@ -2387,7 +2990,7 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +3002,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +3014,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +3026,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="5" t="s">
         <v>47</v>
       </c>
@@ -2435,7 +3038,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" s="5" t="s">
         <v>11</v>
       </c>
@@ -2447,7 +3050,7 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>127</v>
       </c>
@@ -2455,13 +3058,13 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4">
       <c r="A151" s="8" t="s">
         <v>128</v>
       </c>
@@ -2469,7 +3072,7 @@
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
         <v>1</v>
       </c>
@@ -2483,145 +3086,259 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4">
       <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4">
       <c r="A156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C156" s="5"/>
+      <c r="C156" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="5"/>
+      <c r="C157" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
     </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A159:D160"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A139:D140"/>
     <mergeCell ref="A141:D141"/>
     <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -431,6 +431,30 @@
   </si>
   <si>
     <t>总结：初步实现后台。</t>
+  </si>
+  <si>
+    <t>总结：继续接入环信接口。</t>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
+  </si>
+  <si>
+    <t>接入环信接口</t>
+  </si>
+  <si>
+    <t>初步实现前端好友分组功能</t>
+  </si>
+  <si>
+    <t>初步</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[分页]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[搜索]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[背景优化]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -577,12 +601,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -602,156 +620,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -761,9 +810,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -778,9 +825,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -795,9 +840,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -812,33 +855,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -853,9 +888,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -870,9 +903,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -887,17 +918,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -906,9 +933,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -987,10 +1012,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -999,10 +1024,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1011,10 +1036,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1023,10 +1048,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1035,10 +1060,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1047,16 +1072,16 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView topLeftCell="A160" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3201,7 +3226,9 @@
       <c r="B163" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C163" s="5"/>
+      <c r="C163" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4">
@@ -3211,7 +3238,9 @@
       <c r="B164" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
@@ -3221,7 +3250,9 @@
       <c r="B165" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C165" s="5"/>
+      <c r="C165" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4">
@@ -3231,7 +3262,9 @@
       <c r="B166" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C166" s="5"/>
+      <c r="C166" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
@@ -3241,7 +3274,9 @@
       <c r="B167" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C167" s="5"/>
+      <c r="C167" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4">
@@ -3251,12 +3286,14 @@
       <c r="B168" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="5"/>
+      <c r="C168" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -3268,8 +3305,104 @@
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
     </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3304,6 +3437,8 @@
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -455,6 +455,18 @@
   </si>
   <si>
     <t>制作静态后台管理网页[背景优化]</t>
+  </si>
+  <si>
+    <t>初步实现后台注册代码</t>
+  </si>
+  <si>
+    <t>总结：消息接口完成，继续接入通知信息接口。</t>
+  </si>
+  <si>
+    <t>接入环信通知接口</t>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周周四</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -825,7 +839,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -840,7 +856,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -855,25 +873,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -888,7 +914,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -903,7 +931,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -918,13 +948,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -933,7 +967,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1085,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1151,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1458,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView topLeftCell="A163" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3334,7 +3373,9 @@
       <c r="B173" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="5"/>
+      <c r="C173" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4">
@@ -3342,9 +3383,11 @@
         <v>8</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C174" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="C174" s="10">
+        <v>0.8</v>
+      </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4">
@@ -3354,18 +3397,20 @@
       <c r="B175" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C175" s="5"/>
+      <c r="C175" s="10">
+        <v>0.8</v>
+      </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
@@ -3374,7 +3419,9 @@
       <c r="B177" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C177" s="5"/>
+      <c r="C177" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4">
@@ -3384,12 +3431,14 @@
       <c r="B178" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -3401,8 +3450,104 @@
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
     </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" s="10"/>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3439,6 +3584,8 @@
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -467,6 +467,27 @@
   </si>
   <si>
     <t>日期：2018.11.15 第十一周周四</t>
+  </si>
+  <si>
+    <t>总结：通知接口完成，继续开发地图位置共享。</t>
+  </si>
+  <si>
+    <t>日期：2018.11.19 第十二周周一</t>
+  </si>
+  <si>
+    <t>开发地图位置共享</t>
+  </si>
+  <si>
+    <t>初步实现后台登陆代码</t>
+  </si>
+  <si>
+    <t>实现群成员列表</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[标记]</t>
+  </si>
+  <si>
+    <t>制作静态后台管理网页[管理]</t>
   </si>
 </sst>
 </file>
@@ -822,9 +843,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -839,9 +858,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -856,9 +873,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -873,33 +888,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -914,9 +921,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -931,9 +936,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -948,17 +951,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -967,9 +966,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1497,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView topLeftCell="A175" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3479,7 +3476,9 @@
       <c r="B183" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C183" s="10"/>
+      <c r="C183" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4">
@@ -3489,7 +3488,9 @@
       <c r="B184" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C184" s="10"/>
+      <c r="C184" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4">
@@ -3499,7 +3500,9 @@
       <c r="B185" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C185" s="10"/>
+      <c r="C185" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4">
@@ -3509,7 +3512,9 @@
       <c r="B186" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C186" s="10"/>
+      <c r="C186" s="10">
+        <v>0.7</v>
+      </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4">
@@ -3519,7 +3524,9 @@
       <c r="B187" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C187" s="10"/>
+      <c r="C187" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4">
@@ -3529,12 +3536,14 @@
       <c r="B188" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C188" s="10"/>
+      <c r="C188" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3546,8 +3555,104 @@
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
     </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3586,6 +3691,8 @@
     <mergeCell ref="A179:D180"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -488,6 +488,57 @@
   </si>
   <si>
     <t>制作静态后台管理网页[管理]</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周周三</t>
+  </si>
+  <si>
+    <t>总结：地图位置共享实现，但虚拟机定位有时会出现问题。</t>
+  </si>
+  <si>
+    <t>着手测试文档</t>
+  </si>
+  <si>
+    <t>总结：重新选择使用其它模拟器（夜神模拟器），实现虚拟机定位效果。</t>
+  </si>
+  <si>
+    <t>日期：2018.11.26 第十三周周一</t>
+  </si>
+  <si>
+    <t>测试文档</t>
+  </si>
+  <si>
+    <t>网络交互文档</t>
+  </si>
+  <si>
+    <t>使用手册</t>
+  </si>
+  <si>
+    <t>网络交互文档[前半部分]</t>
+  </si>
+  <si>
+    <t>网络交互文档[后半部分]</t>
+  </si>
+  <si>
+    <t>测试文档[前半部分]</t>
+  </si>
+  <si>
+    <t>使用手册[前半部分]</t>
+  </si>
+  <si>
+    <t>测试文档[后半部分]</t>
+  </si>
+  <si>
+    <t>使用手册[后半部分]</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView topLeftCell="A196" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3584,7 +3635,9 @@
       <c r="B193" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C193" s="5"/>
+      <c r="C193" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4">
@@ -3594,7 +3647,9 @@
       <c r="B194" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C194" s="5"/>
+      <c r="C194" s="10">
+        <v>0.7</v>
+      </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4">
@@ -3604,7 +3659,9 @@
       <c r="B195" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C195" s="5"/>
+      <c r="C195" s="10">
+        <v>0.7</v>
+      </c>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4">
@@ -3614,7 +3671,9 @@
       <c r="B196" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C196" s="5"/>
+      <c r="C196" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4">
@@ -3624,7 +3683,9 @@
       <c r="B197" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C197" s="5"/>
+      <c r="C197" s="10">
+        <v>0.6</v>
+      </c>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4">
@@ -3634,12 +3695,14 @@
       <c r="B198" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C198" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3651,8 +3714,212 @@
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
     </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="44">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3693,6 +3960,10 @@
     <mergeCell ref="A189:D190"/>
     <mergeCell ref="A191:D191"/>
     <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>使用手册[后半部分]</t>
+  </si>
+  <si>
+    <t>日期：2018.11.29 第十三周周三</t>
+  </si>
+  <si>
+    <t>日期：2018.11.28 第十三周周三</t>
+  </si>
+  <si>
+    <t>日期：2018.11.29 第十三周周四</t>
   </si>
 </sst>
 </file>
@@ -894,7 +903,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -909,7 +920,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -924,7 +937,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -939,25 +954,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -972,7 +995,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -987,7 +1012,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -1002,13 +1029,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -1017,7 +1048,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1545,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView topLeftCell="A214" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -3851,7 +3884,9 @@
       <c r="B213" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C213" s="5"/>
+      <c r="C213" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4">
@@ -3861,7 +3896,9 @@
       <c r="B214" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C214" s="5"/>
+      <c r="C214" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4">
@@ -3871,7 +3908,9 @@
       <c r="B215" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C215" s="5"/>
+      <c r="C215" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4">
@@ -3881,7 +3920,9 @@
       <c r="B216" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C216" s="10"/>
+      <c r="C216" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4">
@@ -3891,7 +3932,9 @@
       <c r="B217" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C217" s="5"/>
+      <c r="C217" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4">
@@ -3901,7 +3944,9 @@
       <c r="B218" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C218" s="5"/>
+      <c r="C218" s="10">
+        <v>0.2</v>
+      </c>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4">
@@ -3918,8 +3963,212 @@
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
     </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -3964,6 +4213,10 @@
     <mergeCell ref="A209:D210"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A229:D230"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>日期：2018.11.29 第十三周周四</t>
+  </si>
+  <si>
+    <t>日期：2018.12.3 第十四周周一</t>
   </si>
 </sst>
 </file>
@@ -903,9 +906,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -920,9 +921,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -937,9 +936,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -954,33 +951,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -995,9 +984,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1012,9 +999,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1029,17 +1014,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1048,9 +1029,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1202,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,6 +1213,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView topLeftCell="A223" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -4100,7 +4082,9 @@
       <c r="B233" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C233" s="2"/>
+      <c r="C233" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4">
@@ -4110,7 +4094,9 @@
       <c r="B234" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C234" s="2"/>
+      <c r="C234" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4">
@@ -4120,7 +4106,9 @@
       <c r="B235" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C235" s="2"/>
+      <c r="C235" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4">
@@ -4130,7 +4118,9 @@
       <c r="B236" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C236" s="2"/>
+      <c r="C236" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4">
@@ -4140,7 +4130,9 @@
       <c r="B237" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C237" s="2"/>
+      <c r="C237" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4">
@@ -4150,7 +4142,9 @@
       <c r="B238" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C238" s="2"/>
+      <c r="C238" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4">
@@ -4167,8 +4161,104 @@
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
     </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C243" s="11"/>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C244" s="11"/>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C245" s="11"/>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C246" s="11"/>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C247" s="11"/>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248" s="11"/>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="9"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -4217,6 +4307,8 @@
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="168">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -406,24 +405,12 @@
     <t>日期：2018.11.8 第十周周四</t>
   </si>
   <si>
-    <t>完成51%</t>
-  </si>
-  <si>
-    <t>完成52%</t>
-  </si>
-  <si>
     <t>日期：2018.11.12 第十一周周一</t>
   </si>
   <si>
-    <t>写后台代码</t>
-  </si>
-  <si>
     <t>完成50%</t>
   </si>
   <si>
-    <t>编写后台注册</t>
-  </si>
-  <si>
     <t>实现后台注册代码</t>
   </si>
   <si>
@@ -445,9 +432,6 @@
     <t>初步实现前端好友分组功能</t>
   </si>
   <si>
-    <t>初步</t>
-  </si>
-  <si>
     <t>制作静态后台管理网页[分页]</t>
   </si>
   <si>
@@ -490,15 +474,9 @@
     <t>制作静态后台管理网页[管理]</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>日期：2018.11.21 第十二周周三</t>
   </si>
   <si>
@@ -514,15 +492,6 @@
     <t>日期：2018.11.26 第十三周周一</t>
   </si>
   <si>
-    <t>测试文档</t>
-  </si>
-  <si>
-    <t>网络交互文档</t>
-  </si>
-  <si>
-    <t>使用手册</t>
-  </si>
-  <si>
     <t>网络交互文档[前半部分]</t>
   </si>
   <si>
@@ -541,9 +510,6 @@
     <t>使用手册[后半部分]</t>
   </si>
   <si>
-    <t>日期：2018.11.29 第十三周周三</t>
-  </si>
-  <si>
     <t>日期：2018.11.28 第十三周周三</t>
   </si>
   <si>
@@ -551,356 +517,70 @@
   </si>
   <si>
     <t>日期：2018.12.3 第十四周周一</t>
+  </si>
+  <si>
+    <t>日期：2018.12.5 第十四周周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <color theme="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <color theme="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -938,246 +618,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,91 +634,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 强调文字2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 强调文字3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 强调文字4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 强调文字5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 强调文字6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 强调文字1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 强调文字2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 强调文字3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 强调文字4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 强调文字5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 强调文字6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 强调文字1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 强调文字2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 强调文字3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 强调文字4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 强调文字5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 强调文字6" xfId="47" builtinId="52"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="好" xfId="21" builtinId="26"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字1" xfId="24" builtinId="29"/>
-    <cellStyle name="强调文字2" xfId="28" builtinId="33"/>
-    <cellStyle name="强调文字3" xfId="32" builtinId="37"/>
-    <cellStyle name="强调文字4" xfId="36" builtinId="41"/>
-    <cellStyle name="强调文字5" xfId="40" builtinId="45"/>
-    <cellStyle name="强调文字6" xfId="44" builtinId="49"/>
-    <cellStyle name="批注" xfId="8" builtinId="10"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="标题 1" xfId="11" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="12" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="13" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="检查单元格" xfId="18" builtinId="23"/>
-    <cellStyle name="汇总" xfId="20" builtinId="25"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="计算" xfId="17" builtinId="22"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="输入" xfId="15" builtinId="20"/>
-    <cellStyle name="输出" xfId="16" builtinId="21"/>
-    <cellStyle name="适中" xfId="23" builtinId="28"/>
-    <cellStyle name="链接的单元格" xfId="19" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1559,29 +969,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:D240"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.55566608" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.61199008" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="24.01807605" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1017,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1619,7 +1029,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1041,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1053,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1065,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1667,29 +1077,29 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1125,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1137,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1149,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1161,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1173,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1775,29 +1185,29 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1233,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1245,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1257,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1269,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1281,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1883,29 +1293,29 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1919,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1931,7 +1341,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1353,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1365,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1377,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +1389,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1991,29 +1401,29 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +1449,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +1461,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +1473,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +1485,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2087,7 +1497,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -2099,29 +1509,29 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -2135,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +1557,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +1569,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +1581,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +1593,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +1605,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -2207,29 +1617,29 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +1665,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +1677,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2279,7 +1689,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +1701,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
@@ -2303,7 +1713,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -2315,29 +1725,29 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="6" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +1773,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +1785,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +1797,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +1807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +1819,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -2421,29 +1831,29 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +1879,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -2481,7 +1891,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +1903,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +1913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>47</v>
       </c>
@@ -2515,7 +1925,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -2527,29 +1937,29 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2575,7 +1985,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +1997,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2009,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2021,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +2033,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -2635,29 +2045,29 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="8" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2093,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>8</v>
       </c>
@@ -2695,7 +2105,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2117,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
@@ -2719,7 +2129,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>47</v>
       </c>
@@ -2731,7 +2141,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -2743,29 +2153,29 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="8" t="s">
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>1</v>
       </c>
@@ -2779,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2201,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>8</v>
       </c>
@@ -2803,7 +2213,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2225,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +2237,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
         <v>47</v>
       </c>
@@ -2839,7 +2249,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>11</v>
       </c>
@@ -2851,29 +2261,29 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="9" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="8" t="s">
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +2311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>8</v>
       </c>
@@ -2913,7 +2323,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +2335,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>9</v>
       </c>
@@ -2937,7 +2347,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>47</v>
       </c>
@@ -2949,7 +2359,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>11</v>
       </c>
@@ -2961,29 +2371,29 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="9" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="8" t="s">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +2407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +2419,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
@@ -3021,7 +2431,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +2443,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +2455,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
         <v>47</v>
       </c>
@@ -3057,7 +2467,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>11</v>
       </c>
@@ -3069,29 +2479,29 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="8" t="s">
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>1</v>
       </c>
@@ -3105,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +2527,7 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +2539,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +2551,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +2563,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>47</v>
       </c>
@@ -3165,7 +2575,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
         <v>11</v>
       </c>
@@ -3177,29 +2587,29 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="8" t="s">
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
         <v>6</v>
       </c>
@@ -3221,11 +2631,11 @@
         <v>123</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
@@ -3237,7 +2647,7 @@
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +2659,7 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>9</v>
       </c>
@@ -3261,7 +2671,7 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>47</v>
       </c>
@@ -3273,7 +2683,7 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
@@ -3281,33 +2691,33 @@
         <v>120</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D158" s="5"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>1</v>
       </c>
@@ -3321,7 +2731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
         <v>6</v>
       </c>
@@ -3333,31 +2743,31 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
         <v>9</v>
       </c>
@@ -3369,7 +2779,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
         <v>47</v>
       </c>
@@ -3381,7 +2791,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>11</v>
       </c>
@@ -3393,29 +2803,29 @@
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-    </row>
-    <row r="172" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>1</v>
       </c>
@@ -3429,99 +2839,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C173" s="10">
+        <v>136</v>
+      </c>
+      <c r="C173" s="6">
         <v>0.5</v>
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C174" s="10">
+        <v>141</v>
+      </c>
+      <c r="C174" s="6">
         <v>0.8</v>
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C175" s="10">
+        <v>137</v>
+      </c>
+      <c r="C175" s="6">
         <v>0.8</v>
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="10"/>
+      <c r="C176" s="6"/>
       <c r="D176" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C177" s="10">
+        <v>138</v>
+      </c>
+      <c r="C177" s="6">
         <v>0.5</v>
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C178" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>1</v>
       </c>
@@ -3535,101 +2945,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C186" s="10">
+        <v>140</v>
+      </c>
+      <c r="C186" s="6">
         <v>0.7</v>
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-    </row>
-    <row r="192" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>1</v>
       </c>
@@ -3643,101 +3053,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C193" s="10">
+        <v>147</v>
+      </c>
+      <c r="C193" s="6">
         <v>0.5</v>
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C194" s="10">
+        <v>148</v>
+      </c>
+      <c r="C194" s="6">
         <v>0.7</v>
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C195" s="10">
+        <v>149</v>
+      </c>
+      <c r="C195" s="6">
         <v>0.7</v>
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C197" s="10">
+        <v>150</v>
+      </c>
+      <c r="C197" s="6">
         <v>0.6</v>
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C198" s="10">
+        <v>151</v>
+      </c>
+      <c r="C198" s="6">
         <v>0.5</v>
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-    </row>
-    <row r="202" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
         <v>1</v>
       </c>
@@ -3751,101 +3161,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B203" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C206" s="10">
+        <v>155</v>
+      </c>
+      <c r="C206" s="6">
         <v>0.2</v>
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
         <v>1</v>
       </c>
@@ -3859,101 +3269,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C213" s="10">
+        <v>158</v>
+      </c>
+      <c r="C213" s="6">
         <v>0.2</v>
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C214" s="10">
+        <v>159</v>
+      </c>
+      <c r="C214" s="6">
         <v>0.2</v>
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C215" s="10">
+        <v>160</v>
+      </c>
+      <c r="C215" s="6">
         <v>0.2</v>
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C216" s="10">
+        <v>162</v>
+      </c>
+      <c r="C216" s="6">
         <v>0.2</v>
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C217" s="10">
+        <v>161</v>
+      </c>
+      <c r="C217" s="6">
         <v>0.2</v>
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C218" s="10">
+        <v>163</v>
+      </c>
+      <c r="C218" s="6">
         <v>0.2</v>
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="9" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="5" t="s">
         <v>6</v>
       </c>
@@ -3975,11 +3385,11 @@
         <v>60</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="5" t="s">
         <v>8</v>
       </c>
@@ -3987,11 +3397,11 @@
         <v>60</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="5" t="s">
         <v>7</v>
       </c>
@@ -3999,11 +3409,11 @@
         <v>60</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="s">
         <v>9</v>
       </c>
@@ -4011,11 +3421,11 @@
         <v>60</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="5" t="s">
         <v>47</v>
       </c>
@@ -4023,11 +3433,11 @@
         <v>60</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="5" t="s">
         <v>11</v>
       </c>
@@ -4035,33 +3445,33 @@
         <v>60</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="9" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
         <v>1</v>
       </c>
@@ -4075,101 +3485,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C233" s="11">
+        <v>158</v>
+      </c>
+      <c r="C233" s="7">
         <v>0.4</v>
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C234" s="11">
+        <v>159</v>
+      </c>
+      <c r="C234" s="7">
         <v>0.4</v>
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C235" s="11">
+        <v>160</v>
+      </c>
+      <c r="C235" s="7">
         <v>0.4</v>
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C236" s="11">
+        <v>162</v>
+      </c>
+      <c r="C236" s="7">
         <v>0.4</v>
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C237" s="11">
+        <v>161</v>
+      </c>
+      <c r="C237" s="7">
         <v>0.4</v>
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C238" s="11">
+        <v>163</v>
+      </c>
+      <c r="C238" s="7">
         <v>0.4</v>
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="9" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
         <v>1</v>
       </c>
@@ -4183,167 +3593,273 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C243" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="C243" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C244" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="C244" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C245" s="11"/>
+        <v>160</v>
+      </c>
+      <c r="C245" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C246" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C246" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C247" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="C247" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C248" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="C248" s="7">
+        <v>0.6</v>
+      </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="9" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="9"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C255" s="7"/>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="5"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C257" s="7"/>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C258" s="7"/>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A229:D230"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A229:D230"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A239:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A249:D250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -405,12 +406,24 @@
     <t>日期：2018.11.8 第十周周四</t>
   </si>
   <si>
+    <t>完成51%</t>
+  </si>
+  <si>
+    <t>完成52%</t>
+  </si>
+  <si>
     <t>日期：2018.11.12 第十一周周一</t>
   </si>
   <si>
+    <t>写后台代码</t>
+  </si>
+  <si>
     <t>完成50%</t>
   </si>
   <si>
+    <t>编写后台注册</t>
+  </si>
+  <si>
     <t>实现后台注册代码</t>
   </si>
   <si>
@@ -432,6 +445,9 @@
     <t>初步实现前端好友分组功能</t>
   </si>
   <si>
+    <t>初步</t>
+  </si>
+  <si>
     <t>制作静态后台管理网页[分页]</t>
   </si>
   <si>
@@ -474,9 +490,15 @@
     <t>制作静态后台管理网页[管理]</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>已完成</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>日期：2018.11.21 第十二周周三</t>
   </si>
   <si>
@@ -492,6 +514,15 @@
     <t>日期：2018.11.26 第十三周周一</t>
   </si>
   <si>
+    <t>测试文档</t>
+  </si>
+  <si>
+    <t>网络交互文档</t>
+  </si>
+  <si>
+    <t>使用手册</t>
+  </si>
+  <si>
     <t>网络交互文档[前半部分]</t>
   </si>
   <si>
@@ -510,6 +541,9 @@
     <t>使用手册[后半部分]</t>
   </si>
   <si>
+    <t>日期：2018.11.29 第十三周周三</t>
+  </si>
+  <si>
     <t>日期：2018.11.28 第十三周周三</t>
   </si>
   <si>
@@ -520,73 +554,367 @@
   </si>
   <si>
     <t>日期：2018.12.5 第十四周周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.10 第十五周周一</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="宋体"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="宋体"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -601,7 +929,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -616,17 +946,268 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -634,52 +1215,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 强调文字2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 强调文字3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 强调文字4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 强调文字5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 强调文字6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 强调文字1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 强调文字2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 强调文字3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 强调文字4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 强调文字5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 强调文字6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 强调文字1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 强调文字2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 强调文字3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 强调文字4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 强调文字5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 强调文字6" xfId="47" builtinId="52"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="好" xfId="21" builtinId="26"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="强调文字1" xfId="24" builtinId="29"/>
+    <cellStyle name="强调文字2" xfId="28" builtinId="33"/>
+    <cellStyle name="强调文字3" xfId="32" builtinId="37"/>
+    <cellStyle name="强调文字4" xfId="36" builtinId="41"/>
+    <cellStyle name="强调文字5" xfId="40" builtinId="45"/>
+    <cellStyle name="强调文字6" xfId="44" builtinId="49"/>
+    <cellStyle name="批注" xfId="8" builtinId="10"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="标题 1" xfId="11" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="12" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="13" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
+    <cellStyle name="检查单元格" xfId="18" builtinId="23"/>
+    <cellStyle name="汇总" xfId="20" builtinId="25"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="计算" xfId="17" builtinId="22"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="输入" xfId="15" builtinId="20"/>
+    <cellStyle name="输出" xfId="16" builtinId="21"/>
+    <cellStyle name="适中" xfId="23" builtinId="28"/>
+    <cellStyle name="链接的单元格" xfId="19" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -969,29 +1589,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D260"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247"/>
+    <sheetView topLeftCell="A244" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.55566608" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="18.61199008" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="24.01807605" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1637,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1649,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1661,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1673,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1685,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1077,29 +1697,29 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1745,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1757,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1769,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1781,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1793,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1185,29 +1805,29 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1853,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +1865,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1877,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1889,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1901,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1293,29 +1913,29 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1961,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1973,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1985,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1997,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +2009,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1401,29 +2021,29 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +2069,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +2081,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +2093,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +2105,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -1497,7 +2117,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -1509,29 +2129,29 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +2165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +2177,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +2189,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +2201,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +2213,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
@@ -1605,7 +2225,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -1617,29 +2237,29 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +2285,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +2297,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +2309,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +2321,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +2333,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -1725,29 +2345,29 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +2393,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +2405,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +2417,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +2427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
@@ -1819,7 +2439,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -1831,29 +2451,29 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +2499,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +2511,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +2523,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +2533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>47</v>
       </c>
@@ -1925,7 +2545,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -1937,29 +2557,29 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +2593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +2605,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2617,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2629,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2021,7 +2641,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
@@ -2033,7 +2653,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -2045,29 +2665,29 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -2081,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" s="5" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2713,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2725,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2737,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2749,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>47</v>
       </c>
@@ -2141,7 +2761,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -2153,29 +2773,29 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="10" t="s">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2821,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +2833,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
         <v>7</v>
       </c>
@@ -2225,7 +2845,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -2237,7 +2857,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
         <v>47</v>
       </c>
@@ -2249,7 +2869,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
         <v>11</v>
       </c>
@@ -2261,29 +2881,29 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="11" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="10" t="s">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -2297,7 +2917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123" s="5" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2943,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125" s="5" t="s">
         <v>7</v>
       </c>
@@ -2335,7 +2955,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
         <v>9</v>
       </c>
@@ -2347,7 +2967,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
         <v>47</v>
       </c>
@@ -2359,7 +2979,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
         <v>11</v>
       </c>
@@ -2371,29 +2991,29 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="10" t="s">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +3027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
         <v>6</v>
       </c>
@@ -2419,7 +3039,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +3051,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" s="5" t="s">
         <v>7</v>
       </c>
@@ -2443,7 +3063,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4">
       <c r="A136" s="5" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +3075,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4">
       <c r="A137" s="5" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +3087,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
         <v>11</v>
       </c>
@@ -2479,29 +3099,29 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="11" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="10" t="s">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4">
       <c r="A143" s="5" t="s">
         <v>6</v>
       </c>
@@ -2527,7 +3147,7 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +3159,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +3171,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +3183,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="5" t="s">
         <v>47</v>
       </c>
@@ -2575,7 +3195,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" s="5" t="s">
         <v>11</v>
       </c>
@@ -2587,29 +3207,29 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="10" t="s">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" s="5" t="s">
         <v>6</v>
       </c>
@@ -2631,11 +3251,11 @@
         <v>123</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4">
       <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
@@ -2647,7 +3267,7 @@
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155" s="5" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +3279,7 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4">
       <c r="A156" s="5" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +3291,7 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" s="5" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +3303,7 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
@@ -2691,33 +3311,33 @@
         <v>120</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
+      <c r="A159" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
         <v>1</v>
       </c>
@@ -2731,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" s="5" t="s">
         <v>6</v>
       </c>
@@ -2743,31 +3363,31 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="A165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166" s="5" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +3399,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167" s="5" t="s">
         <v>47</v>
       </c>
@@ -2791,7 +3411,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168" s="5" t="s">
         <v>11</v>
       </c>
@@ -2803,29 +3423,29 @@
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
+      <c r="A169" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="4" t="s">
         <v>1</v>
       </c>
@@ -2839,99 +3459,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4">
       <c r="A173" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" s="6">
+        <v>140</v>
+      </c>
+      <c r="C173" s="10">
         <v>0.5</v>
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C174" s="6">
+        <v>146</v>
+      </c>
+      <c r="C174" s="10">
         <v>0.8</v>
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4">
       <c r="A175" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C175" s="6">
+        <v>141</v>
+      </c>
+      <c r="C175" s="10">
         <v>0.8</v>
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="6"/>
+      <c r="C176" s="10"/>
       <c r="D176" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C177" s="6">
+        <v>143</v>
+      </c>
+      <c r="C177" s="10">
         <v>0.5</v>
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4">
       <c r="A178" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C178" s="6">
+        <v>144</v>
+      </c>
+      <c r="C178" s="10">
         <v>0.5</v>
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
+      <c r="A179" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="4" t="s">
         <v>1</v>
       </c>
@@ -2945,101 +3565,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4">
       <c r="A183" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4">
       <c r="A184" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4">
       <c r="A185" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4">
       <c r="A186" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C186" s="6">
+        <v>145</v>
+      </c>
+      <c r="C186" s="10">
         <v>0.7</v>
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4">
       <c r="A187" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4">
       <c r="A188" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4">
+      <c r="A189" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="4" t="s">
         <v>1</v>
       </c>
@@ -3053,101 +3673,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4">
       <c r="A193" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C193" s="6">
+        <v>152</v>
+      </c>
+      <c r="C193" s="10">
         <v>0.5</v>
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4">
       <c r="A194" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C194" s="6">
+        <v>153</v>
+      </c>
+      <c r="C194" s="10">
         <v>0.7</v>
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4">
       <c r="A195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C195" s="6">
+        <v>154</v>
+      </c>
+      <c r="C195" s="10">
         <v>0.7</v>
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4">
       <c r="A196" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4">
       <c r="A197" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C197" s="6">
+        <v>155</v>
+      </c>
+      <c r="C197" s="10">
         <v>0.6</v>
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4">
       <c r="A198" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C198" s="6">
+        <v>156</v>
+      </c>
+      <c r="C198" s="10">
         <v>0.5</v>
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4">
+      <c r="A199" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="4" t="s">
         <v>1</v>
       </c>
@@ -3161,101 +3781,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4">
       <c r="A203" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4">
       <c r="A204" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C206" s="6">
+        <v>162</v>
+      </c>
+      <c r="C206" s="10">
         <v>0.2</v>
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4">
       <c r="A207" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4">
       <c r="A208" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4">
+      <c r="A209" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="4" t="s">
         <v>1</v>
       </c>
@@ -3269,101 +3889,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4">
       <c r="A213" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C213" s="6">
+        <v>168</v>
+      </c>
+      <c r="C213" s="10">
         <v>0.2</v>
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4">
       <c r="A214" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C214" s="6">
+        <v>169</v>
+      </c>
+      <c r="C214" s="10">
         <v>0.2</v>
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4">
       <c r="A215" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C215" s="6">
+        <v>170</v>
+      </c>
+      <c r="C215" s="10">
         <v>0.2</v>
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C216" s="6">
+        <v>172</v>
+      </c>
+      <c r="C216" s="10">
         <v>0.2</v>
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C217" s="6">
+        <v>171</v>
+      </c>
+      <c r="C217" s="10">
         <v>0.2</v>
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C218" s="6">
+        <v>173</v>
+      </c>
+      <c r="C218" s="10">
         <v>0.2</v>
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="11" t="s">
+    <row r="219" spans="1:4">
+      <c r="A219" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4">
       <c r="A223" s="5" t="s">
         <v>6</v>
       </c>
@@ -3385,11 +4005,11 @@
         <v>60</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4">
       <c r="A224" s="5" t="s">
         <v>8</v>
       </c>
@@ -3397,11 +4017,11 @@
         <v>60</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4">
       <c r="A225" s="5" t="s">
         <v>7</v>
       </c>
@@ -3409,11 +4029,11 @@
         <v>60</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
         <v>9</v>
       </c>
@@ -3421,11 +4041,11 @@
         <v>60</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4">
       <c r="A227" s="5" t="s">
         <v>47</v>
       </c>
@@ -3433,11 +4053,11 @@
         <v>60</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4">
       <c r="A228" s="5" t="s">
         <v>11</v>
       </c>
@@ -3445,33 +4065,33 @@
         <v>60</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229" s="11" t="s">
+    <row r="229" spans="1:4">
+      <c r="A229" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="4" t="s">
         <v>1</v>
       </c>
@@ -3485,101 +4105,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4">
       <c r="A233" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C233" s="7">
+        <v>168</v>
+      </c>
+      <c r="C233" s="11">
         <v>0.4</v>
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C234" s="7">
+        <v>169</v>
+      </c>
+      <c r="C234" s="11">
         <v>0.4</v>
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C235" s="7">
+        <v>170</v>
+      </c>
+      <c r="C235" s="11">
         <v>0.4</v>
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C236" s="7">
+        <v>172</v>
+      </c>
+      <c r="C236" s="11">
         <v>0.4</v>
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C237" s="7">
+        <v>171</v>
+      </c>
+      <c r="C237" s="11">
         <v>0.4</v>
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C238" s="7">
+        <v>173</v>
+      </c>
+      <c r="C238" s="11">
         <v>0.4</v>
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="11" t="s">
+    <row r="239" spans="1:4">
+      <c r="A239" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B241" s="10"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="4" t="s">
         <v>1</v>
       </c>
@@ -3593,101 +4213,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C243" s="7">
+        <v>168</v>
+      </c>
+      <c r="C243" s="11">
         <v>0.6</v>
       </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4">
       <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C244" s="7">
+        <v>169</v>
+      </c>
+      <c r="C244" s="11">
         <v>0.6</v>
       </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4">
       <c r="A245" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C245" s="7">
+        <v>170</v>
+      </c>
+      <c r="C245" s="11">
         <v>0.6</v>
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4">
       <c r="A246" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C246" s="7">
+        <v>172</v>
+      </c>
+      <c r="C246" s="11">
         <v>0.6</v>
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4">
       <c r="A247" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C247" s="7">
+        <v>171</v>
+      </c>
+      <c r="C247" s="11">
         <v>0.6</v>
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4">
       <c r="A248" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C248" s="7">
+        <v>173</v>
+      </c>
+      <c r="C248" s="11">
         <v>0.6</v>
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="11" t="s">
+    <row r="249" spans="1:4">
+      <c r="A249" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="9"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="4" t="s">
         <v>1</v>
       </c>
@@ -3701,165 +4321,279 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4">
       <c r="A253" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C253" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="C253" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4">
       <c r="A254" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C254" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="C254" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4">
       <c r="A255" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C255" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="C255" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4">
       <c r="A256" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C256" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="C256" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4">
       <c r="A257" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C257" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="C257" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C258" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="C258" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="11" t="s">
+    <row r="259" spans="1:4">
+      <c r="A259" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="9"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C263" s="11"/>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C264" s="11"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C265" s="11"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C266" s="11"/>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="5"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C268" s="11"/>
+      <c r="D268" s="5"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="9"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A259:D260"/>
+  <mergeCells count="54">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A221:D221"/>
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A239:D240"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A249:D250"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A269:D270"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/第02组/02项目计划表.xlsx
+++ b/第02组/02项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="340" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>日期：2018.12.10 第十五周周一</t>
+  </si>
+  <si>
+    <t>日期：2018.12.17 第十六周周一</t>
+  </si>
+  <si>
+    <t>PPT制作</t>
+  </si>
+  <si>
+    <t>测试文档[APP]</t>
+  </si>
+  <si>
+    <t>测试文档[网页]</t>
+  </si>
+  <si>
+    <t>测试文档[APP]</t>
+  </si>
+  <si>
+    <t>总结：演示前的最后一天，做好准备。</t>
   </si>
 </sst>
 </file>
@@ -912,9 +930,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -929,9 +945,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -946,9 +960,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -963,33 +975,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1004,9 +1008,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1021,9 +1023,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1038,17 +1038,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1057,9 +1053,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1590,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F264" sqref="F264"/>
+    <sheetView topLeftCell="A255" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279:D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -4436,7 +4430,9 @@
       <c r="B263" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C263" s="11"/>
+      <c r="C263" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4">
@@ -4446,7 +4442,9 @@
       <c r="B264" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C264" s="11"/>
+      <c r="C264" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4">
@@ -4456,7 +4454,9 @@
       <c r="B265" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C265" s="11"/>
+      <c r="C265" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4">
@@ -4466,7 +4466,9 @@
       <c r="B266" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C266" s="11"/>
+      <c r="C266" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4">
@@ -4476,7 +4478,9 @@
       <c r="B267" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C267" s="11"/>
+      <c r="C267" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4">
@@ -4486,7 +4490,9 @@
       <c r="B268" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C268" s="11"/>
+      <c r="C268" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4">
@@ -4503,8 +4509,116 @@
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
     </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D273" s="5"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D278" s="5"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B279" s="9"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="9"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -4559,6 +4673,8 @@
     <mergeCell ref="A259:D260"/>
     <mergeCell ref="A261:D261"/>
     <mergeCell ref="A269:D270"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A279:D280"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
